--- a/Tai_Lieu/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
+++ b/Tai_Lieu/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeGym\006-case-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\CG\A1121I1\Tai_Lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A262A3-C6DF-4DD5-893B-3B1466E06E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C99C707-2024-404B-833D-A3CF2B4189E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="hop_dong" sheetId="15" r:id="rId13"/>
     <sheet name="hop_dong_chi_tiet" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +36,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1525,21 +1528,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>template</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1547,27 +1550,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
@@ -1583,21 +1586,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
@@ -1606,7 +1609,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1618,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1647,30 +1650,30 @@
       <selection activeCell="N4" sqref="N4:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1745,7 @@
       </c>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1781,7 @@
       </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1935,24 +1938,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu_di_kem</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
@@ -1970,7 +1973,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2009,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2027,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2045,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2090,26 +2093,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>178</v>
       </c>
@@ -2133,7 +2136,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2160,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2208,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2232,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -2349,7 +2352,7 @@
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2373,7 +2376,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>277</v>
       </c>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>306</v>
       </c>
@@ -2433,23 +2436,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong_chi_tiet</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>191</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2497,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2512,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2527,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2557,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2597,28 +2600,28 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
@@ -2651,12 +2654,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>236</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2700,12 +2703,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2749,12 +2752,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>236</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>136</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3120,12 +3123,12 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="43" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>121</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -3210,12 +3213,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B52" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>121</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
@@ -3255,27 +3258,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>329</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>52</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
@@ -3339,12 +3342,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B76" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>262</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>277</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>306</v>
       </c>
@@ -3565,12 +3568,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>274</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3602,12 +3605,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>262</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>156</v>
       </c>
@@ -3685,12 +3688,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>274</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3723,12 +3726,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>262</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3812,12 +3815,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B125" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>297</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>136</v>
       </c>
@@ -3877,17 +3880,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
         <v>297</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>53</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>156</v>
       </c>
@@ -3943,17 +3946,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B146" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>83</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
@@ -3975,17 +3978,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>236</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4017,17 +4020,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="2:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>274</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>7</v>
       </c>
@@ -4043,17 +4046,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="2:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B173" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>316</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>6</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>52</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
         <v>53</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
         <v>136</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
         <v>6</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
         <v>52</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
         <v>53</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>156</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
         <v>136</v>
       </c>
@@ -4482,23 +4485,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>vi_tri</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4512,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4516,7 +4521,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,21 +4543,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>trinh_do</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4561,7 +4566,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4575,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4579,7 +4584,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4588,7 +4593,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4610,21 +4615,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>bo_phan</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -4633,7 +4638,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4647,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4651,7 +4656,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4665,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4682,30 +4687,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>nhan_vien</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4741,7 +4746,7 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4777,7 +4782,7 @@
       </c>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4813,7 +4818,7 @@
       </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4849,7 +4854,7 @@
       </c>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4921,7 +4926,7 @@
       </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4957,7 +4962,7 @@
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -4993,7 +4998,7 @@
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5029,7 +5034,7 @@
       </c>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5065,7 +5070,7 @@
       </c>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5126,21 +5131,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_khach</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
@@ -5149,7 +5154,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5163,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +5181,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5190,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5207,28 +5212,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>khach_hang</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>83</v>
       </c>
@@ -5258,7 +5263,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5288,7 +5293,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5318,7 +5323,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5348,7 +5353,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +5383,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +5413,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5438,7 +5443,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5468,7 +5473,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5498,7 +5503,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5528,7 +5533,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5583,22 +5588,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>kieu_thue</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>110</v>
       </c>
@@ -5608,7 +5613,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5623,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5628,7 +5633,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5638,7 +5643,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
